--- a/Data/Ball_Valve/pitch000/pitch000yaw015/Summary_pitch000yaw015.xlsx
+++ b/Data/Ball_Valve/pitch000/pitch000yaw015/Summary_pitch000yaw015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\pitch000yaw015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\Ball_Valve\pitch000\pitch000yaw015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6281D-E51C-497D-9CE1-3BF9A93BE7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51735C88-72B5-4108-B408-7C95C7FD9F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Number</t>
   </si>
@@ -90,6 +90,96 @@
   </si>
   <si>
     <t>0.5m</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:26:06</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:49:16</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:50:53</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:52:05</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:52:45</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:53:25</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:54:08</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:55:02</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:55:41</t>
+  </si>
+  <si>
+    <t>2024-08-03 15:58:23</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:12:39</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:14:10</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:17:59</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:19:42</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:22:15</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:25:45</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:27:15</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:30:43</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:32:29</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:33:27</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:45:38</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:49:32</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:57:48</t>
+  </si>
+  <si>
+    <t>2024-08-03 16:59:14</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:03:50</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:13:35</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:14:18</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:16:12</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:27:05</t>
+  </si>
+  <si>
+    <t>2024-08-03 17:28:03</t>
   </si>
 </sst>
 </file>
@@ -480,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E722222-A6EB-4181-BA6F-53C1ABAE2258}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,15 +626,87 @@
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="B3">
+        <v>1.04372609548131E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.9971629951403602E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.9072356881098901E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.6207710949982697E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.3432906999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.23888899999999999</v>
+      </c>
+      <c r="H3">
+        <v>4.3917849999999996</v>
+      </c>
+      <c r="I3">
+        <v>1.3640699904125999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="B4">
+        <v>1.4486353439264649E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.7943088983728299E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.9072356881098901E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.4248667200487531E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.4787072999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.16405600000000042</v>
+      </c>
+      <c r="H4">
+        <v>3.7371230000000004</v>
+      </c>
+      <c r="I4">
+        <v>1.1307885574344472</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1.7559283197974101E-2</v>
+      </c>
+      <c r="C5">
+        <v>9.8429343693839707E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.5142306815405802E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.98813666761705E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.6893473000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.162353</v>
+      </c>
+      <c r="H5">
+        <v>6.0475539999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.7523775182468899</v>
       </c>
     </row>
   </sheetData>
@@ -558,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +736,7 @@
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,82 +748,204 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2.4242840000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.8203704105293294E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1.5797969999999992</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.9072356881098901E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0.23888900000000035</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.4429293607103584E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>3.2635520000000007</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7.5573017671653493E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1.6467939999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.1600168447052838E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>4.1374410000000008</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.9971629951403636E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>2.4068070000000006</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.5598393676517646E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0.65319900000000075</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.5385740736149168E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4.3917850000000005</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.3278927354067267E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2.6903590000000008</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7.622482600832918E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>2.3432906999999998</v>
+      </c>
+      <c r="J16">
+        <v>1.0437260954813093E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1.3640699904126024</v>
+      </c>
+      <c r="J17">
+        <v>4.620771094998275E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>0.23888900000000035</v>
+      </c>
+      <c r="J18">
+        <v>4.9971629951403636E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>4.3917850000000005</v>
+      </c>
+      <c r="J19">
+        <v>1.9072356881098901E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -673,10 +957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A35A3-408C-4B03-A73B-9C6343ED01B2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +972,7 @@
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,59 +986,201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1.625119999999999</v>
+      </c>
+      <c r="D3">
+        <v>1.4642319351796721E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1.072298</v>
+      </c>
+      <c r="D4">
+        <v>1.0217832549029179E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2.3240219999999994</v>
+      </c>
+      <c r="D5">
+        <v>1.8267102151135004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>0.16405600000000042</v>
+      </c>
+      <c r="D6">
+        <v>8.7943088983728299E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0.2824939999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.5039516016148913E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>0.52883300000000055</v>
+      </c>
+      <c r="D8">
+        <v>1.6329504462781471E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2.3345520000000004</v>
+      </c>
+      <c r="D9">
+        <v>1.3065097550343819E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>0.77445699999999995</v>
+      </c>
+      <c r="D10">
+        <v>9.807771714308999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1.9441179999999996</v>
+      </c>
+      <c r="D11">
+        <v>1.4451414498242009E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>3.7371230000000004</v>
+      </c>
+      <c r="D12">
+        <v>2.4248667200487531E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1.4787072999999999</v>
+      </c>
+      <c r="J15">
+        <v>1.4486353439264649E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1.1307885574344472</v>
+      </c>
+      <c r="J16">
+        <v>4.5686651141474697E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>0.16405600000000042</v>
+      </c>
+      <c r="J17">
+        <v>8.7943088983728299E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>3.7371230000000004</v>
+      </c>
+      <c r="J18">
+        <v>2.4248667200487531E-2</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F92E77-243F-4445-8EA7-C19B55B13596}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,71 +1232,141 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1.5806690000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.5142306815405767E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>2.9214759999999984</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.842934369383969E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0.79834600000000044</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.2511648784573707E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0.16235299999999953</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.4683859472223258E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>2.8551649999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.7062498527472471E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>3.3462239999999994</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.6135083606848784E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>3.2987399999999987</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0169842661756174E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>1.4996380000000009</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.9462784692843942E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>6.0475540000000017</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.0236679783992493E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>4.3833079999999995</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.0345193265240799E-2</v>
+      </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
@@ -882,20 +1378,44 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
+      <c r="H13">
+        <v>2.6893472999999997</v>
+      </c>
+      <c r="I13">
+        <v>1.7559283197974136E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>6</v>
       </c>
+      <c r="H14">
+        <v>1.7523775182468884</v>
+      </c>
+      <c r="I14">
+        <v>4.9881366676170578E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>7</v>
       </c>
+      <c r="H15">
+        <v>0.16235299999999953</v>
+      </c>
+      <c r="I15">
+        <v>9.842934369383969E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>8</v>
+      </c>
+      <c r="H16">
+        <v>6.0475540000000017</v>
+      </c>
+      <c r="I16">
+        <v>2.5142306815405767E-2</v>
       </c>
     </row>
   </sheetData>
